--- a/Tidsplan.xlsx
+++ b/Tidsplan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="21">
   <si>
     <t>Anders</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>We use</t>
+  </si>
+  <si>
+    <t>Last changes</t>
   </si>
 </sst>
 </file>
@@ -464,15 +467,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I14"/>
+  <dimension ref="A2:R14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1">
         <v>19</v>
@@ -496,8 +499,30 @@
         <v>25</v>
       </c>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K2" s="1"/>
+      <c r="L2" s="1">
+        <v>19</v>
+      </c>
+      <c r="M2" s="1">
+        <v>20</v>
+      </c>
+      <c r="N2" s="1">
+        <v>21</v>
+      </c>
+      <c r="O2" s="1">
+        <v>22</v>
+      </c>
+      <c r="P2" s="1">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>24</v>
+      </c>
+      <c r="R2" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -522,8 +547,32 @@
       <c r="H3" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -548,8 +597,32 @@
       <c r="H4" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -574,8 +647,32 @@
       <c r="H5" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -592,38 +689,53 @@
         <v>7</v>
       </c>
       <c r="I6" s="8"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>18</v>
       </c>
